--- a/pred_ohlcv/54_21/2019-10-30 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1448.05912839589</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1268.671707614193</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1266.371707614193</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1236.930307614193</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1237.239107614193</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-479.7242948245732</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5260.597513043404</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4201.751013043404</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4635.374513584432</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5203.873813584432</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7422.373813584432</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8290.151113584432</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9757.034946878865</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>8818.410581151678</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15739.04065761939</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14107.21199454117</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>13489.71649454117</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>13102.31629411994</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>13159.45405022778</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>13076.23425022778</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>12384.64305022777</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>12099.21645022777</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1448.05912839589</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1304.88352839589</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1268.671707614193</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1266.371707614193</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1236.930307614193</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1237.239107614193</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-479.7242948245732</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5260.597513043404</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4201.751013043404</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4635.374513584432</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5203.873813584432</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7422.373813584432</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8290.151113584432</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9757.034946878865</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>8818.410581151678</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>12692.95297461225</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>15354.8729219051</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>16860.38675761939</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15739.04065761939</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>15893.09615761939</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>14107.21199454117</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>13021.53749454117</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>13489.71649454117</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>13102.31629411994</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>13756.10555022778</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>13159.45405022778</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>13076.23425022778</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>12384.64305022777</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>12099.21645022777</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>11314.70785022777</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>10744.64625022778</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10754.23185022778</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-214.5294057426794</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-196.7594057426794</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
